--- a/Allegheny County cases.xlsx
+++ b/Allegheny County cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaak\Google Drive\Github Repositories\Allegheny County COVID19 Case analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaak\Google Drive\Github Repositories\Pittsburgh COVID19 Case analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B90984-D0A6-497F-865A-172C0BC9D984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189B282-5566-4B6E-B478-F9FEEB3E485B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3049,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD708B8F-C40E-4707-AEA4-C544F52B3684}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3633,6 +3633,50 @@
         <v>19</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B27" s="1">
+        <v>876</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:C28" si="6">B27-B26</f>
+        <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" ref="D27:D28" si="7">(B27/B26)-1</f>
+        <v>2.2170361726954413E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>134</v>
+      </c>
+      <c r="F27" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B28" s="1">
+        <v>893</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="7"/>
+        <v>1.9406392694063967E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>142</v>
+      </c>
+      <c r="F28" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
